--- a/biology/Botanique/Musée_de_l'aloès_d'Aruba/Musée_de_l'aloès_d'Aruba.xlsx
+++ b/biology/Botanique/Musée_de_l'aloès_d'Aruba/Musée_de_l'aloès_d'Aruba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_l%27alo%C3%A8s_d%27Aruba</t>
+          <t>Musée_de_l'aloès_d'Aruba</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Musée de l'aloès est un musée situé au nord-ouest d'Oranjestad, à Aruba. Une visite du musée et de l'usine fournit un aperçu du processus de production d'aloès à Aruba, ainsi que des 160 ans d'histoire de la culture de l'aloès à Aruba[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Musée de l'aloès est un musée situé au nord-ouest d'Oranjestad, à Aruba. Une visite du musée et de l'usine fournit un aperçu du processus de production d'aloès à Aruba, ainsi que des 160 ans d'histoire de la culture de l'aloès à Aruba.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_l%27alo%C3%A8s_d%27Aruba</t>
+          <t>Musée_de_l'aloès_d'Aruba</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante a été introduite vers 1800 et il s'est avéré que le climat chaud et sec ainsi que la composition du sol étaient très propices à la création de plantations commerciales. La plante est également devenue sauvage sur l'île. Initialement, la résine était récoltée sous forme de laxatif. Il a été découvert par la suite que l'huile avait un effet bénéfique sur la peau. La quantité de substance active par plante à Aruba est une fois et demie plus élevée qu'ailleurs dans le monde[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante a été introduite vers 1800 et il s'est avéré que le climat chaud et sec ainsi que la composition du sol étaient très propices à la création de plantations commerciales. La plante est également devenue sauvage sur l'île. Initialement, la résine était récoltée sous forme de laxatif. Il a été découvert par la suite que l'huile avait un effet bénéfique sur la peau. La quantité de substance active par plante à Aruba est une fois et demie plus élevée qu'ailleurs dans le monde.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_l%27alo%C3%A8s_d%27Aruba</t>
+          <t>Musée_de_l'aloès_d'Aruba</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’usine propose des guides touristiques gratuits en anglais, néerlandais, espagnol et papiamento (langue maternelle d’Aruba) toutes les 15 minutes. Le musée est ouvert de 8h00 à 16h30 du lundi au vendredi. Le samedi, le musée est ouvert de 9h00 à 16h00. Le musée est fermé le dimanche. Il y a une visite à pied qui comprend la salle de coupe de l'aloès, le laboratoire d'essais, la salle de remplissage et même l'emballage et le stockage[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’usine propose des guides touristiques gratuits en anglais, néerlandais, espagnol et papiamento (langue maternelle d’Aruba) toutes les 15 minutes. Le musée est ouvert de 8h00 à 16h30 du lundi au vendredi. Le samedi, le musée est ouvert de 9h00 à 16h00. Le musée est fermé le dimanche. Il y a une visite à pied qui comprend la salle de coupe de l'aloès, le laboratoire d'essais, la salle de remplissage et même l'emballage et le stockage.
 </t>
         </is>
       </c>
